--- a/static/attach/笔试成绩模板.xlsx
+++ b/static/attach/笔试成绩模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>姓名/fdInterviewName</t>
   </si>
@@ -30,17 +30,19 @@
   <si>
     <t>远程面试会议号/fdMeetingNum</t>
   </si>
+  <si>
+    <t>李丽</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -67,6 +69,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -74,20 +114,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,32 +121,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,77 +138,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +227,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,79 +359,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,85 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,19 +456,49 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,183 +533,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -685,11 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1013,64 +1015,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="1"/>
     <col min="2" max="2" width="29.4553571428571" customWidth="1"/>
-    <col min="3" max="3" width="33.9196428571429" customWidth="1"/>
-    <col min="4" max="4" width="30.3571428571429" customWidth="1"/>
+    <col min="3" max="3" width="33.9196428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="34.2232142857143" customWidth="1"/>
     <col min="6" max="6" width="14.7232142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44843.6041666667</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44843.6041666667</v>
+      </c>
+      <c r="E2">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:1">
       <c r="A4" s="3"/>
-      <c r="B4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
